--- a/biology/Botanique/Muellerina_eucalyptoides/Muellerina_eucalyptoides.xlsx
+++ b/biology/Botanique/Muellerina_eucalyptoides/Muellerina_eucalyptoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muellerina eucalyptoides est une espèce de plantes à fleurs du genre Muellerina, famille des Loranthaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Muellerina eucalyptoides est une plante parasite. Elle a un port pendulaire, contrairement aux autres espèces de Muellerina, mais elle a les longs stolons épicortaux de toutes les espèces de Muellerina.
 Les feuilles sont opposées avec une nervation indistincte. La floraison a lieu principalement en été, l'inflorescence est terminale, racémose avec généralement 3 ou 4 paires de fleurs, avec la fleur centrale sessile, les fleurs latérales sur des pédicelles. La corolle est courbée en bouton, libre. Les étamines sont inégales, avec des anthères dorsifixées et polyvalentes. Le fruit est en forme de poire.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Muellerina eucalyptoides est endémique de l'Australie.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Insectes
-Muellerina eucalyptoides est l'hôte des chenilles de Delias harpalyce, Delias nigrina, Ogyris abrota,  Ogyris genoveva, Ogyris ianthis, Opodiphthera loranthi, Comocrus behri.
-Plantes
-Un inventaire des plantes hôtes de Muellerina eucalyptoides est donné par Downey (les espèces marquées par un astérisque sont exotiques de l'Australie)[1] :
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muellerina eucalyptoides est l'hôte des chenilles de Delias harpalyce, Delias nigrina, Ogyris abrota,  Ogyris genoveva, Ogyris ianthis, Opodiphthera loranthi, Comocrus behri.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muellerina_eucalyptoides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muellerina_eucalyptoides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un inventaire des plantes hôtes de Muellerina eucalyptoides est donné par Downey (les espèces marquées par un astérisque sont exotiques de l'Australie) :
 Anacardiaceae : Schinus molle *
 Apocynaceae : Nerium oleander *
 Casuarinaceae : Allocasuarina littoralis, Allocasuarina torulosa, Allocasuarina verticillata, Casuarina glauca
